--- a/results/Table_01.xlsx
+++ b/results/Table_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdelaram\Documents\GitHub\hotspots\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EAD685-FEFF-4CDA-82CB-617715D47E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19A012-49DE-4ACB-8FFC-1A6334C488E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{DB51F24B-B387-406B-BC62-7B75E273117B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Coldspot</t>
   </si>
@@ -110,9 +110,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Phillipines, Indonesia, West Papua, Timor East</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Phillipines, Indonesia, Timor East</t>
   </si>
 </sst>
 </file>
@@ -249,9 +249,6 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,508 +616,504 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="23.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+    </row>
+    <row r="17" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>16</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
         <v>6</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
         <v>8</v>
       </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="9">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>6</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>3</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14">
-        <v>9</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="9">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6</v>
-      </c>
-      <c r="G13" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9">
-        <v>4</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7">
-        <v>8</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9">
-        <v>4</v>
-      </c>
-      <c r="G20" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16">
-        <v>19</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>60</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>62</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>68</v>
       </c>
     </row>
